--- a/data/SMT.xlsx
+++ b/data/SMT.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="352">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>SMT</t>
@@ -27382,7 +27382,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:AD176"/>
+  <dimension ref="A1:AE176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -27420,6 +27420,7 @@
     <col min="28" max="28" width="16.28515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="15.625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="16.28515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27553,6 +27554,9 @@
       <c r="AD11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AE11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
@@ -27642,6 +27646,9 @@
       <c r="AD12" s="25" t="n">
         <v>1.4334686774E10</v>
       </c>
+      <c r="AE12" s="25" t="n">
+        <v>7.7974870316E10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
@@ -27731,6 +27738,9 @@
       <c r="AD13" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE13" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
@@ -27820,6 +27830,9 @@
       <c r="AD14" s="25" t="n">
         <v>1.4334686774E10</v>
       </c>
+      <c r="AE14" s="25" t="n">
+        <v>7.7974870316E10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
@@ -27909,6 +27922,9 @@
       <c r="AD15" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE15" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
@@ -27998,6 +28014,9 @@
       <c r="AD16" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE16" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
@@ -28087,6 +28106,9 @@
       <c r="AD17" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE17" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
@@ -28176,6 +28198,9 @@
       <c r="AD18" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE18" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
@@ -28265,6 +28290,9 @@
       <c r="AD19" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE19" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
@@ -28354,6 +28382,9 @@
       <c r="AD20" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE20" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
@@ -28443,6 +28474,9 @@
       <c r="AD21" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE21" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
@@ -28532,6 +28566,9 @@
       <c r="AD22" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE22" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
@@ -28621,6 +28658,9 @@
       <c r="AD23" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE23" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
@@ -28710,6 +28750,9 @@
       <c r="AD24" s="25" t="n">
         <v>1.946675985E9</v>
       </c>
+      <c r="AE24" s="25" t="n">
+        <v>8.44048309E8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
@@ -28799,6 +28842,9 @@
       <c r="AD25" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE25" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
@@ -28888,6 +28934,9 @@
       <c r="AD26" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE26" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
@@ -28977,6 +29026,9 @@
       <c r="AD27" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE27" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
@@ -29066,6 +29118,9 @@
       <c r="AD28" s="25" t="n">
         <v>1.946675985E9</v>
       </c>
+      <c r="AE28" s="25" t="n">
+        <v>8.44048309E8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
@@ -29155,6 +29210,9 @@
       <c r="AD29" s="25" t="n">
         <v>1.8524755235E10</v>
       </c>
+      <c r="AE29" s="25" t="n">
+        <v>8.581882041E9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
@@ -29244,6 +29302,9 @@
       <c r="AD30" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE30" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
@@ -29333,6 +29394,9 @@
       <c r="AD31" s="25" t="n">
         <v>3.71291205E8</v>
       </c>
+      <c r="AE31" s="25" t="n">
+        <v>3.045457951E9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
@@ -29422,6 +29486,9 @@
       <c r="AD32" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE32" s="25" t="n">
+        <v>5.3628668E7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
@@ -29511,6 +29578,9 @@
       <c r="AD33" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE33" s="25" t="n">
+        <v>3.70557381E8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
@@ -29600,6 +29670,9 @@
       <c r="AD34" s="25" t="n">
         <v>1.20650491E8</v>
       </c>
+      <c r="AE34" s="25" t="n">
+        <v>3.67353842E8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
@@ -29689,6 +29762,9 @@
       <c r="AD35" s="25" t="n">
         <v>1.8032813539E10</v>
       </c>
+      <c r="AE35" s="25" t="n">
+        <v>4.744884199E9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
@@ -29778,6 +29854,9 @@
       <c r="AD36" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE36" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
@@ -29867,6 +29946,9 @@
       <c r="AD37" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE37" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
@@ -29956,6 +30038,9 @@
       <c r="AD38" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE38" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
@@ -30045,6 +30130,9 @@
       <c r="AD39" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE39" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
@@ -30134,6 +30222,9 @@
       <c r="AD40" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE40" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
@@ -30223,6 +30314,9 @@
       <c r="AD41" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE41" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
@@ -30312,6 +30406,9 @@
       <c r="AD42" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE42" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
@@ -30401,6 +30498,9 @@
       <c r="AD43" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE43" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
@@ -30490,6 +30590,9 @@
       <c r="AD44" s="25" t="n">
         <v>2.78975221E8</v>
       </c>
+      <c r="AE44" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
@@ -30579,6 +30682,9 @@
       <c r="AD45" s="25" t="n">
         <v>2.78975221E8</v>
       </c>
+      <c r="AE45" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
@@ -30668,6 +30774,9 @@
       <c r="AD46" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE46" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
@@ -30757,6 +30866,9 @@
       <c r="AD47" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE47" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
@@ -30846,6 +30958,9 @@
       <c r="AD48" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE48" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
@@ -30935,6 +31050,9 @@
       <c r="AD49" s="25" t="n">
         <v>6.797799892E10</v>
       </c>
+      <c r="AE49" s="25" t="n">
+        <v>3.5681370162E10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
@@ -31024,6 +31142,9 @@
       <c r="AD50" s="25" t="n">
         <v>6.9386617197E10</v>
       </c>
+      <c r="AE50" s="25" t="n">
+        <v>6.9386617197E10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
@@ -31113,6 +31234,9 @@
       <c r="AD51" s="25" t="n">
         <v>5.19418946E8</v>
       </c>
+      <c r="AE51" s="25" t="n">
+        <v>3.418551974E9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
@@ -31202,6 +31326,9 @@
       <c r="AD52" s="25" t="n">
         <v>-1.928037223E9</v>
       </c>
+      <c r="AE52" s="25" t="n">
+        <v>-3.7123799009E10</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
@@ -31291,6 +31418,9 @@
       <c r="AD53" s="25" t="n">
         <v>3.2288462516E10</v>
       </c>
+      <c r="AE53" s="25" t="n">
+        <v>1.5435056532E10</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
@@ -31380,6 +31510,9 @@
       <c r="AD54" s="25" t="n">
         <v>3.2618126345E10</v>
       </c>
+      <c r="AE54" s="25" t="n">
+        <v>3.2618126345E10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
@@ -31469,6 +31602,9 @@
       <c r="AD55" s="25" t="n">
         <v>1.229829546E9</v>
       </c>
+      <c r="AE55" s="25" t="n">
+        <v>2.035372592E9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
@@ -31558,6 +31694,9 @@
       <c r="AD56" s="25" t="n">
         <v>-1.559493375E9</v>
       </c>
+      <c r="AE56" s="25" t="n">
+        <v>-1.9218442405E10</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
@@ -31647,6 +31786,9 @@
       <c r="AD57" s="25" t="n">
         <v>1.775673644E9</v>
       </c>
+      <c r="AE57" s="25" t="n">
+        <v>7.04287464E8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
@@ -31736,6 +31878,9 @@
       <c r="AD58" s="25" t="n">
         <v>3.984944715E9</v>
       </c>
+      <c r="AE58" s="25" t="n">
+        <v>3.984944715E9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
@@ -31825,6 +31970,9 @@
       <c r="AD59" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE59" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
@@ -31914,6 +32062,9 @@
       <c r="AD60" s="25" t="n">
         <v>-2.209271071E9</v>
       </c>
+      <c r="AE60" s="25" t="n">
+        <v>-3.280657251E9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
@@ -32003,6 +32154,9 @@
       <c r="AD61" s="25" t="n">
         <v>1.550243154E9</v>
       </c>
+      <c r="AE61" s="25" t="n">
+        <v>6.59581083E8</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
@@ -32092,6 +32246,9 @@
       <c r="AD62" s="25" t="n">
         <v>2.973128117E9</v>
       </c>
+      <c r="AE62" s="25" t="n">
+        <v>2.973128117E9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
@@ -32181,6 +32338,9 @@
       <c r="AD63" s="25" t="n">
         <v>4.12145885E8</v>
       </c>
+      <c r="AE63" s="25" t="n">
+        <v>6.59581083E8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
@@ -32270,6 +32430,9 @@
       <c r="AD64" s="25" t="n">
         <v>-1.835030848E9</v>
       </c>
+      <c r="AE64" s="25" t="n">
+        <v>-2.973128117E9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
@@ -32359,6 +32522,9 @@
       <c r="AD65" s="25" t="n">
         <v>6.257688564E9</v>
       </c>
+      <c r="AE65" s="25" t="n">
+        <v>1.1441081E9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
@@ -32448,6 +32614,9 @@
       <c r="AD66" s="25" t="n">
         <v>6.257688564E9</v>
       </c>
+      <c r="AE66" s="25" t="n">
+        <v>6.257688564E9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
@@ -32537,6 +32706,9 @@
       <c r="AD67" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE67" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
@@ -32626,6 +32798,9 @@
       <c r="AD68" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE68" s="25" t="n">
+        <v>-5.113580464E9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
@@ -32715,6 +32890,9 @@
       <c r="AD69" s="25" t="n">
         <v>2.827033668E9</v>
       </c>
+      <c r="AE69" s="25" t="n">
+        <v>7.961081E8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
@@ -32804,6 +32982,9 @@
       <c r="AD70" s="25" t="n">
         <v>2.772633876E9</v>
       </c>
+      <c r="AE70" s="25" t="n">
+        <v>2.772633876E9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
@@ -32893,6 +33074,9 @@
       <c r="AD71" s="25" t="n">
         <v>5.4399792E7</v>
       </c>
+      <c r="AE71" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
@@ -32982,6 +33166,9 @@
       <c r="AD72" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE72" s="25" t="n">
+        <v>-1.976525776E9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
@@ -33071,6 +33258,9 @@
       <c r="AD73" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE73" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
@@ -33160,6 +33350,9 @@
       <c r="AD74" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE74" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
@@ -33249,6 +33442,9 @@
       <c r="AD75" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE75" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
@@ -33338,6 +33534,9 @@
       <c r="AD76" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE76" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
@@ -33427,6 +33626,9 @@
       <c r="AD77" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE77" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
@@ -33516,6 +33718,9 @@
       <c r="AD78" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE78" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
@@ -33605,6 +33810,9 @@
       <c r="AD79" s="25" t="n">
         <v>2.2770611222E10</v>
       </c>
+      <c r="AE79" s="25" t="n">
+        <v>9.20752853E9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
@@ -33694,6 +33902,9 @@
       <c r="AD80" s="25" t="n">
         <v>2.0245569206E10</v>
       </c>
+      <c r="AE80" s="25" t="n">
+        <v>7.313747018E9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
@@ -33783,6 +33994,9 @@
       <c r="AD81" s="25" t="n">
         <v>2.525042016E9</v>
       </c>
+      <c r="AE81" s="25" t="n">
+        <v>1.893781512E9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
@@ -33872,6 +34086,9 @@
       <c r="AD82" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE82" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
@@ -33961,6 +34178,9 @@
       <c r="AD83" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE83" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
@@ -34050,6 +34270,9 @@
       <c r="AD84" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE84" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
@@ -34139,6 +34362,9 @@
       <c r="AD85" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE85" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
@@ -34228,6 +34454,9 @@
       <c r="AD86" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE86" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
@@ -34317,6 +34546,9 @@
       <c r="AD87" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE87" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
@@ -34406,6 +34638,9 @@
       <c r="AD88" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE88" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
@@ -34495,6 +34730,9 @@
       <c r="AD89" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE89" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
@@ -34584,6 +34822,9 @@
       <c r="AD90" s="25" t="n">
         <v>2.01163336E8</v>
       </c>
+      <c r="AE90" s="25" t="n">
+        <v>1.9327418697E10</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
@@ -34673,6 +34914,9 @@
       <c r="AD91" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE91" s="25" t="n">
+        <v>8.13320768E9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
@@ -34762,6 +35006,9 @@
       <c r="AD92" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE92" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
@@ -34851,6 +35098,9 @@
       <c r="AD93" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE93" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
@@ -34940,6 +35190,9 @@
       <c r="AD94" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE94" s="25" t="n">
+        <v>1.0867050057E10</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
@@ -35029,6 +35282,9 @@
       <c r="AD95" s="25" t="n">
         <v>2.01163336E8</v>
       </c>
+      <c r="AE95" s="25" t="n">
+        <v>3.2716096E8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
@@ -35118,6 +35374,9 @@
       <c r="AD96" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE96" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
@@ -35207,6 +35466,9 @@
       <c r="AD97" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE97" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
@@ -35296,6 +35558,9 @@
       <c r="AD98" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE98" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
@@ -35385,6 +35650,9 @@
       <c r="AD99" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE99" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
@@ -35474,6 +35742,9 @@
       <c r="AD100" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE100" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
@@ -35563,6 +35834,9 @@
       <c r="AD101" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE101" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
@@ -35652,6 +35926,9 @@
       <c r="AD102" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE102" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
@@ -35741,6 +36018,9 @@
       <c r="AD103" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE103" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
@@ -35830,6 +36110,9 @@
       <c r="AD104" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE104" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
@@ -35919,6 +36202,9 @@
       <c r="AD105" s="25" t="n">
         <v>3.916333959E9</v>
       </c>
+      <c r="AE105" s="25" t="n">
+        <v>4.079792789E9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
@@ -36008,6 +36294,9 @@
       <c r="AD106" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE106" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
@@ -36097,6 +36386,9 @@
       <c r="AD107" s="25" t="n">
         <v>2.96246E7</v>
       </c>
+      <c r="AE107" s="25" t="n">
+        <v>3.09076E7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
@@ -36186,6 +36478,9 @@
       <c r="AD108" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE108" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
@@ -36275,6 +36570,9 @@
       <c r="AD109" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE109" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
@@ -36364,6 +36662,9 @@
       <c r="AD110" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE110" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
@@ -36453,6 +36754,9 @@
       <c r="AD111" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE111" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
@@ -36542,6 +36846,9 @@
       <c r="AD112" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE112" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
@@ -36631,6 +36938,9 @@
       <c r="AD113" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE113" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
@@ -36720,6 +37030,9 @@
       <c r="AD114" s="25" t="n">
         <v>3.886709359E9</v>
       </c>
+      <c r="AE114" s="25" t="n">
+        <v>4.048885189E9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
@@ -36809,6 +37122,9 @@
       <c r="AD115" s="25" t="n">
         <v>4.404563027E9</v>
       </c>
+      <c r="AE115" s="25" t="n">
+        <v>4.404563027E9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
@@ -36898,6 +37214,9 @@
       <c r="AD116" s="25" t="n">
         <v>4.404563027E9</v>
       </c>
+      <c r="AE116" s="25" t="n">
+        <v>4.404563027E9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
@@ -36987,6 +37306,9 @@
       <c r="AD117" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE117" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
@@ -37076,6 +37398,9 @@
       <c r="AD118" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE118" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
@@ -37165,6 +37490,9 @@
       <c r="AD119" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE119" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
@@ -37254,6 +37582,9 @@
       <c r="AD120" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE120" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
@@ -37343,6 +37674,9 @@
       <c r="AD121" s="25" t="n">
         <v>5.467432E10</v>
       </c>
+      <c r="AE121" s="25" t="n">
+        <v>6.560739E10</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
@@ -37432,6 +37766,9 @@
       <c r="AD122" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE122" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
@@ -37521,6 +37858,9 @@
       <c r="AD123" s="25" t="n">
         <v>5.467432E10</v>
       </c>
+      <c r="AE123" s="25" t="n">
+        <v>6.560739E10</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
@@ -37610,6 +37950,9 @@
       <c r="AD124" s="25" t="n">
         <v>6.692092262E9</v>
       </c>
+      <c r="AE124" s="25" t="n">
+        <v>4.973877071E9</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
@@ -37699,6 +38042,9 @@
       <c r="AD125" s="25" t="n">
         <v>3.195789821E9</v>
       </c>
+      <c r="AE125" s="25" t="n">
+        <v>4.973877071E9</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
@@ -37788,6 +38134,9 @@
       <c r="AD126" s="25" t="n">
         <v>3.496302441E9</v>
       </c>
+      <c r="AE126" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
@@ -37877,6 +38226,9 @@
       <c r="AD127" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE127" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
@@ -37966,6 +38318,9 @@
       <c r="AD128" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE128" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
@@ -38055,6 +38410,9 @@
       <c r="AD129" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE129" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
@@ -38144,6 +38502,9 @@
       <c r="AD130" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE130" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
@@ -38233,6 +38594,9 @@
       <c r="AD131" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE131" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
@@ -38322,6 +38686,9 @@
       <c r="AD132" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE132" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
@@ -38411,6 +38778,9 @@
       <c r="AD133" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE133" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
@@ -38500,6 +38870,9 @@
       <c r="AD134" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE134" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
@@ -38589,6 +38962,9 @@
       <c r="AD135" s="25" t="n">
         <v>1.3977638341E10</v>
       </c>
+      <c r="AE135" s="25" t="n">
+        <v>3.636852371E9</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
@@ -38678,6 +39054,9 @@
       <c r="AD136" s="25" t="n">
         <v>4.265563533E9</v>
       </c>
+      <c r="AE136" s="25" t="n">
+        <v>3.636852371E9</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
@@ -38767,6 +39146,9 @@
       <c r="AD137" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE137" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
@@ -38856,6 +39238,9 @@
       <c r="AD138" s="25" t="n">
         <v>9.46508015E8</v>
       </c>
+      <c r="AE138" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
@@ -38945,6 +39330,9 @@
       <c r="AD139" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE139" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
@@ -39034,6 +39422,9 @@
       <c r="AD140" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE140" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
@@ -39123,6 +39514,9 @@
       <c r="AD141" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE141" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
@@ -39212,6 +39606,9 @@
       <c r="AD142" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE142" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
@@ -39301,6 +39698,9 @@
       <c r="AD143" s="25" t="n">
         <v>8.765566793E9</v>
       </c>
+      <c r="AE143" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
@@ -39390,6 +39790,9 @@
       <c r="AD144" s="25" t="n">
         <v>2.43128472E8</v>
       </c>
+      <c r="AE144" s="25" t="n">
+        <v>2933221.0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
@@ -39479,6 +39882,9 @@
       <c r="AD145" s="25" t="n">
         <v>2.43128472E8</v>
       </c>
+      <c r="AE145" s="25" t="n">
+        <v>2933221.0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
@@ -39568,6 +39974,9 @@
       <c r="AD146" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE146" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
@@ -39657,6 +40066,9 @@
       <c r="AD147" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE147" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
@@ -39746,6 +40158,9 @@
       <c r="AD148" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE148" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
@@ -39835,6 +40250,9 @@
       <c r="AD149" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE149" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
@@ -39924,6 +40342,9 @@
       <c r="AD150" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE150" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
@@ -40013,6 +40434,9 @@
       <c r="AD151" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE151" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
@@ -40102,6 +40526,9 @@
       <c r="AD152" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE152" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
@@ -40191,6 +40618,9 @@
       <c r="AD153" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE153" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
@@ -40280,6 +40710,9 @@
       <c r="AD154" s="25" t="n">
         <v>6.05932223E8</v>
       </c>
+      <c r="AE154" s="25" t="n">
+        <v>4.03138405E8</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
@@ -40369,6 +40802,9 @@
       <c r="AD155" s="25" t="n">
         <v>5.77275889E8</v>
       </c>
+      <c r="AE155" s="25" t="n">
+        <v>4.03138405E8</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
@@ -40458,6 +40894,9 @@
       <c r="AD156" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE156" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
@@ -40547,6 +40986,9 @@
       <c r="AD157" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE157" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
@@ -40636,6 +41078,9 @@
       <c r="AD158" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE158" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
@@ -40725,6 +41170,9 @@
       <c r="AD159" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE159" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
@@ -40814,6 +41262,9 @@
       <c r="AD160" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE160" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
@@ -40903,6 +41354,9 @@
       <c r="AD161" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE161" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
@@ -40992,6 +41446,9 @@
       <c r="AD162" s="25" t="n">
         <v>2.8656334E7</v>
       </c>
+      <c r="AE162" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
@@ -41081,6 +41538,9 @@
       <c r="AD163" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE163" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
@@ -41170,6 +41630,9 @@
       <c r="AD164" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE164" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
@@ -41259,6 +41722,9 @@
       <c r="AD165" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE165" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
@@ -41348,6 +41814,9 @@
       <c r="AD166" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE166" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
@@ -41437,6 +41906,9 @@
       <c r="AD167" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AE167" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
@@ -41524,6 +41996,9 @@
         <v>0.0</v>
       </c>
       <c r="AD168" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE168" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -41565,7 +42040,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AD10"/>
+    <mergeCell ref="I10:AE10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>

--- a/data/SMT.xlsx
+++ b/data/SMT.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>SMT</t>

--- a/data/SMT.xlsx
+++ b/data/SMT.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>SMT</t>

--- a/data/SMT.xlsx
+++ b/data/SMT.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>SMT</t>
